--- a/dist/document/Ly Van Khai.xlsx
+++ b/dist/document/Ly Van Khai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khailv/Desktop/lamgift/dist/document/doctor_product/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E155E3-2EFE-EF4F-8036-823724D7983D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391321C-E5DC-D24C-8EBC-98788D60B648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="1" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16560" windowHeight="16740" activeTab="3" xr2:uid="{EC198BD0-BD87-504A-9348-023B77747D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>TEN</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>CKBS</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>ILM001</t>
+  </si>
+  <si>
+    <t>ERA001</t>
   </si>
 </sst>
 </file>
@@ -647,6 +656,34 @@
           </cell>
           <cell r="E30">
             <v>52</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>BON008</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Bonzacim (Rosuvastatin 10mg)</v>
+          </cell>
+          <cell r="D31">
+            <v>8900</v>
+          </cell>
+          <cell r="E31">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>ERA001</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Esotrax (Esomeprazole 20mg)</v>
+          </cell>
+          <cell r="D32">
+            <v>10800</v>
+          </cell>
+          <cell r="E32">
+            <v>50</v>
           </cell>
         </row>
       </sheetData>
@@ -997,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8FE71F-5EFF-6041-BE28-D4CEB2AE74F8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,6 +1063,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1045,18 +1085,18 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
       <c r="C3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>15000</v>
       </c>
       <c r="D3" s="4">
         <v>52</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">D3-10</f>
+        <f t="shared" ref="E3:E18" si="0">D3-10</f>
         <v>42</v>
       </c>
     </row>
@@ -1065,15 +1105,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="C4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>4000</v>
       </c>
       <c r="D4" s="4">
-        <f>VLOOKUP(A4, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E4">
@@ -1086,15 +1126,15 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Uvomo (Mosaprid citrat 5mg)</v>
       </c>
       <c r="C5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>3300</v>
       </c>
       <c r="D5" s="4">
-        <f>VLOOKUP(A5, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E5">
@@ -1107,15 +1147,15 @@
         <v>13</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="C6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>13000</v>
       </c>
       <c r="D6" s="4">
-        <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E6">
@@ -1128,15 +1168,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="C7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>2900</v>
       </c>
       <c r="D7" s="4">
-        <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E7">
@@ -1149,15 +1189,15 @@
         <v>15</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="C8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>6926</v>
       </c>
       <c r="D8" s="4">
-        <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>40</v>
       </c>
       <c r="E8">
@@ -1170,15 +1210,15 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="C9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>24000</v>
       </c>
       <c r="D9" s="4">
-        <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>52</v>
       </c>
       <c r="E9">
@@ -1191,15 +1231,15 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$30, 2, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="C10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$30, 3, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
         <v>9000</v>
       </c>
       <c r="D10" s="4">
-        <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP(A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E10">
@@ -1208,9 +1248,148 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="2" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="4" t="e">
+        <f>VLOOKUP(A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="4" t="e">
+        <f>VLOOKUP(A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="7" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="4" t="e">
+        <f>VLOOKUP(A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="4" t="e">
+        <f>VLOOKUP(A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="4" t="e">
+        <f>VLOOKUP(A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="7" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="4" t="e">
+        <f>VLOOKUP(A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="4" t="e">
+        <f>VLOOKUP(A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$C$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$D$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="4" t="e">
+        <f>VLOOKUP(A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE869CE-B7AE-3244-A975-269B194431C6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,11 +1431,11 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
       <c r="C2" s="7">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>15000</v>
       </c>
       <c r="D2" s="7">
@@ -1272,19 +1451,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="C3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>4000</v>
       </c>
       <c r="D3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E10" si="0">D3-10</f>
+        <f t="shared" ref="E3:E19" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
@@ -1293,15 +1472,15 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="C4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>13000</v>
       </c>
       <c r="D4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E4" s="11">
@@ -1314,15 +1493,15 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="C5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>2900</v>
       </c>
       <c r="D5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E5" s="11">
@@ -1335,15 +1514,15 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="C6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>24000</v>
       </c>
       <c r="D6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>52</v>
       </c>
       <c r="E6" s="11">
@@ -1356,15 +1535,15 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="C7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>9000</v>
       </c>
       <c r="D7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E7" s="11">
@@ -1377,15 +1556,15 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="C8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>3000</v>
       </c>
       <c r="D8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E8" s="11">
@@ -1398,15 +1577,15 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="C9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>6000</v>
       </c>
       <c r="D9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>54</v>
       </c>
       <c r="E9" s="11">
@@ -1419,20 +1598,182 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="C10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>12000</v>
       </c>
       <c r="D10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>42</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="7" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="7" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="7" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D955C-90F4-B44B-B1C7-CAFB20DF2816}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,11 +1816,11 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Sopezid (Esomeprazole 40mg)</v>
       </c>
       <c r="C2" s="7">
-        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A2, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>15000</v>
       </c>
       <c r="D2" s="7">
@@ -1495,19 +1836,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="C3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>4000</v>
       </c>
       <c r="D3" s="7">
-        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A3, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E11" si="0">D3-10</f>
+        <f t="shared" ref="E3:E25" si="0">D3-10</f>
         <v>35</v>
       </c>
     </row>
@@ -1516,15 +1857,15 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="C4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>13000</v>
       </c>
       <c r="D4" s="7">
-        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A4, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E4" s="11">
@@ -1537,15 +1878,15 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Picencal (Calcium &amp; Vitamin D)</v>
       </c>
       <c r="C5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>2900</v>
       </c>
       <c r="D5" s="7">
-        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A5, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>45</v>
       </c>
       <c r="E5" s="11">
@@ -1558,15 +1899,15 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cimrinat (Clarithomycin 500mg)</v>
       </c>
       <c r="C6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>24000</v>
       </c>
       <c r="D6" s="7">
-        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A6, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>52</v>
       </c>
       <c r="E6" s="11">
@@ -1579,15 +1920,15 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="C7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>9000</v>
       </c>
       <c r="D7" s="7">
-        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A7, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>55</v>
       </c>
       <c r="E7" s="11">
@@ -1600,15 +1941,15 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Noraquick (Gabapentin 300mg)</v>
       </c>
       <c r="C8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>6000</v>
       </c>
       <c r="D8" s="7">
-        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A8, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>54</v>
       </c>
       <c r="E8" s="11">
@@ -1621,15 +1962,15 @@
         <v>21</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="C9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>14700</v>
       </c>
       <c r="D9" s="7">
-        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A9, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>54</v>
       </c>
       <c r="E9" s="11">
@@ -1642,15 +1983,15 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
       </c>
       <c r="C10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>6926</v>
       </c>
       <c r="D10" s="7">
-        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A10, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>40</v>
       </c>
       <c r="E10" s="11">
@@ -1663,23 +2004,282 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$30, 2, FALSE)</f>
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
         <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="C11" s="7">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$30, 3, FALSE)</f>
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
         <v>12000</v>
       </c>
       <c r="D11" s="7">
-        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$30, 4, FALSE)</f>
+        <f>VLOOKUP($A11, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
         <v>42</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Aluantine (Almagate 500mg)</v>
+      </c>
+      <c r="C12" s="7">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>8000</v>
+      </c>
+      <c r="D12" s="7">
+        <f>VLOOKUP($A12, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="C13" s="7">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>10800</v>
+      </c>
+      <c r="D13" s="7">
+        <f>VLOOKUP($A13, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <f>VLOOKUP($A14, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <f>VLOOKUP($A15, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="7" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="7" t="e">
+        <f>VLOOKUP($A16, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f>VLOOKUP($A17, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f>VLOOKUP($A18, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <f>VLOOKUP($A19, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="e">
+        <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="7" t="e">
+        <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="7" t="e">
+        <f>VLOOKUP($A20, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="e">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="7" t="e">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <f>VLOOKUP($A21, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="e">
+        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="7" t="e">
+        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="7" t="e">
+        <f>VLOOKUP($A22, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="e">
+        <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" s="7" t="e">
+        <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="7" t="e">
+        <f>VLOOKUP($A23, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="e">
+        <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="7" t="e">
+        <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="7" t="e">
+        <f>VLOOKUP($A24, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="e">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" s="7" t="e">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="7" t="e">
+        <f>VLOOKUP($A25, [1]Sheet!$B$2:$E$300, 4, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>